--- a/database/industries/ghaza/ghepino/eps.xlsx
+++ b/database/industries/ghaza/ghepino/eps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -34,28 +34,34 @@
     <t>capital_now</t>
   </si>
   <si>
-    <t>1401</t>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1399</t>
   </si>
   <si>
     <t>1398</t>
   </si>
   <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1401/09/23</t>
-  </si>
-  <si>
-    <t>1399/04/31</t>
-  </si>
-  <si>
-    <t>1401/01/28</t>
-  </si>
-  <si>
-    <t>1400/04/27</t>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>1401/03/04</t>
+  </si>
+  <si>
+    <t>1400/03/01</t>
+  </si>
+  <si>
+    <t>1399/03/31</t>
+  </si>
+  <si>
+    <t>1398/03/13</t>
+  </si>
+  <si>
+    <t>1397/03/13</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>801</v>
+        <v>129</v>
       </c>
       <c r="D2">
-        <v>730</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>4300000</v>
+        <v>9000000</v>
       </c>
       <c r="F2">
-        <v>4300000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6622407</v>
       </c>
       <c r="F3">
-        <v>4300000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +490,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>2290</v>
+        <v>176</v>
       </c>
       <c r="D4">
-        <v>2220</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>10000000</v>
+        <v>6622407</v>
       </c>
       <c r="F4">
-        <v>4300000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +510,39 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>8612</v>
+        <v>358</v>
       </c>
       <c r="D5">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="E5">
-        <v>500000</v>
+        <v>1260000</v>
       </c>
       <c r="F5">
-        <v>4300000</v>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>196</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>1260000</v>
+      </c>
+      <c r="F6">
+        <v>9000000</v>
       </c>
     </row>
   </sheetData>
